--- a/medicine/Psychotrope/Malvasia_di_Schierano/Malvasia_di_Schierano.xlsx
+++ b/medicine/Psychotrope/Malvasia_di_Schierano/Malvasia_di_Schierano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La malvasia di Schierano  est un cépage italien de raisins noirs de la grande famille de Malvasia.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage Malvasia di Schierano provient du nord de l’Italie.  
 Il est classé cépage d'appoint en DOC Collina Torinese Malvasia et Malvasia di Castelnuovo Don Bosco.
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau duveteux, vert blanchâtre avec un liseré carminé.
 Jeunes feuilles aranéeuses, vert clair.
@@ -577,7 +593,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque tardive: 35  jours après le chasselas.
 </t>
@@ -608,7 +626,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes et les baies sont de taille moyenne. La grappe est tronconique et de compacité moyenne. Les vins sont parfois vinifiés en mélange avec le freisa. Vinifiée seule, la malvasia di Schierano donne un vin rouge au parfum aromatique douce.
 </t>
@@ -639,7 +659,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La malvasia di Schierano est connu sous le nom de malvasia di Castelnuovo don Bosco
 </t>
